--- a/solr-index/Report.xlsx
+++ b/solr-index/Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13108\Desktop\info-retrieval\solr-index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19978F8C-9288-43A9-9A67-465C42256A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E340D-23F0-43BA-AD7E-E061E5C71266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-16320" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="149">
   <si>
     <t>https://www.nytimes.com/interactive/2019/10/15/t-magazine/nick-cave-artist.html</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>https://www.nytimes.com/2019/02/04/us/politics/trump-hiv-aids-plan.html</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/newsletters</t>
   </si>
 </sst>
 </file>
@@ -530,9 +533,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -541,6 +541,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -828,1157 +831,1157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98:D109"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="3.15625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.41796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="45.41796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.15625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.41796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.41796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="39" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>6</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>7</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>8</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>9</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>10</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>2</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="39" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>4</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>5</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>7</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>8</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>9</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>10</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>2</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>3</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>4</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>5</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>6</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>7</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>8</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>9</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>10</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="39" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>2</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>3</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>4</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>5</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>6</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>7</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>8</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>9</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>10</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>1</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>2</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>3</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>4</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>5</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>6</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>7</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>8</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>9</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>10</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>1</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>2</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>3</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>4</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>5</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>6</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>7</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>8</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>9</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>10</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>1</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>2</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>3</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="91" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>4</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>5</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>6</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>7</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>8</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>9</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>10</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D98" s="1"/>
+      <c r="D98" s="5"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>1</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>2</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>3</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <v>4</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>5</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>6</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="39" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>7</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>8</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <v>9</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="26.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>10</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2120,61 +2123,61 @@
     <hyperlink ref="C78" r:id="rId123" xr:uid="{C03523A4-2766-48F2-9903-F47DA37DC945}"/>
     <hyperlink ref="C79" r:id="rId124" xr:uid="{31F88CBE-28D9-4FFD-853E-64917413163F}"/>
     <hyperlink ref="C81" r:id="rId125" xr:uid="{0817169D-DB41-431E-B476-1AF99C930AE8}"/>
-    <hyperlink ref="C80" r:id="rId126" xr:uid="{C2A0B831-9F0F-43CA-8A99-D4CC5D82FE5E}"/>
-    <hyperlink ref="C83" r:id="rId127" xr:uid="{D2D9B609-86A8-4723-AFF9-868664D25BBD}"/>
-    <hyperlink ref="C84" r:id="rId128" xr:uid="{56C91A44-7C08-41CC-ABEE-B2BDCDC3AAAD}"/>
-    <hyperlink ref="C85" r:id="rId129" xr:uid="{35312ADC-74E9-43D2-A623-207FB8FFDD6D}"/>
-    <hyperlink ref="C82" r:id="rId130" xr:uid="{48F440BF-3F22-48B7-8FEA-DA7B93627114}"/>
-    <hyperlink ref="D76" r:id="rId131" xr:uid="{C9510286-7AF9-4449-AEE7-97708DE77F64}"/>
-    <hyperlink ref="D77" r:id="rId132" xr:uid="{B92C830E-FD73-4FC5-9F69-14CF90F76D88}"/>
-    <hyperlink ref="D78" r:id="rId133" xr:uid="{1C19C7BE-BD32-49F7-9143-108DAC82E154}"/>
-    <hyperlink ref="D79" r:id="rId134" xr:uid="{A29464AF-9F6B-447A-83EF-D553C424B4CD}"/>
-    <hyperlink ref="D80" r:id="rId135" xr:uid="{412AE17F-F492-4FF4-AD82-B9F2ACA46B0A}"/>
-    <hyperlink ref="D81" r:id="rId136" xr:uid="{88FF0994-DE9E-456C-9EA9-A6D2B2D97201}"/>
-    <hyperlink ref="D82" r:id="rId137" xr:uid="{670348EA-3BF7-42DF-9935-DC2EBCAFEAC6}"/>
-    <hyperlink ref="D83" r:id="rId138" xr:uid="{90F668A1-58AF-40B2-8D34-1C9288C65E61}"/>
-    <hyperlink ref="D84" r:id="rId139" xr:uid="{EA8D8529-EE87-4540-852E-ADD61D416989}"/>
-    <hyperlink ref="D85" r:id="rId140" xr:uid="{7138EC0C-CA80-44BF-8629-B083C79167EA}"/>
-    <hyperlink ref="C88" r:id="rId141" xr:uid="{86DB8BA3-1DC3-4DF1-A56D-F42C8F022A18}"/>
-    <hyperlink ref="C89" r:id="rId142" xr:uid="{3816143D-7AB4-46CE-A31F-4D37CCC74861}"/>
-    <hyperlink ref="C90" r:id="rId143" xr:uid="{3F01CD94-4268-4946-81A0-37601FA25BDE}"/>
-    <hyperlink ref="C91" r:id="rId144" xr:uid="{01E551E9-786F-4377-B449-6E88085154BF}"/>
-    <hyperlink ref="C92" r:id="rId145" xr:uid="{FB13788E-76D3-494B-BFE3-0A4B84EED34A}"/>
-    <hyperlink ref="C93" r:id="rId146" xr:uid="{C1FFC63D-BC74-45F5-8403-9F13D0AA3D36}"/>
-    <hyperlink ref="C94" r:id="rId147" xr:uid="{D08ABC1A-A3F4-4FE9-9293-AAA712CE27FE}"/>
-    <hyperlink ref="C95" r:id="rId148" xr:uid="{8A01D498-7AB0-4672-A66C-0870AA25FF5B}"/>
-    <hyperlink ref="C96" r:id="rId149" xr:uid="{60FB32F2-82E6-48D7-844B-E9C118DCFF26}"/>
-    <hyperlink ref="C97" r:id="rId150" xr:uid="{A8BC003D-3020-4BE8-A85B-7BEA49AE2249}"/>
-    <hyperlink ref="D88" r:id="rId151" xr:uid="{20C68334-38CA-4525-9552-3E04D338E194}"/>
-    <hyperlink ref="D89" r:id="rId152" xr:uid="{D88397FB-D16E-4422-83D8-C645BF49D43F}"/>
-    <hyperlink ref="D90" r:id="rId153" xr:uid="{2AC518D7-E671-4D21-A02D-100FD2965C71}"/>
-    <hyperlink ref="D91" r:id="rId154" xr:uid="{71BDFA72-5B30-44FB-853B-FCA51C184701}"/>
-    <hyperlink ref="D92" r:id="rId155" xr:uid="{F083BA8D-0511-4E41-B2E8-9489FBD37459}"/>
-    <hyperlink ref="D93" r:id="rId156" xr:uid="{ABD05250-F031-42D5-98AE-CB47918ABB09}"/>
-    <hyperlink ref="D94" r:id="rId157" xr:uid="{64C97C23-D510-437F-9D27-B73A61548C2E}"/>
-    <hyperlink ref="D95" r:id="rId158" xr:uid="{2CF2DC7D-3A5D-4A1F-916E-BE96944AFE91}"/>
-    <hyperlink ref="D96" r:id="rId159" xr:uid="{C1C0F965-C88E-46E9-9E46-354F356CA1D9}"/>
-    <hyperlink ref="D97" r:id="rId160" xr:uid="{63F5AFCA-7D0C-4683-A182-D714A1F5E57F}"/>
-    <hyperlink ref="C100" r:id="rId161" xr:uid="{AAD0F5EC-52E2-4818-B82E-10ACA6009DAC}"/>
-    <hyperlink ref="C101" r:id="rId162" xr:uid="{A4BF43C5-F9A2-4410-8C08-B912025D9C17}"/>
-    <hyperlink ref="C102" r:id="rId163" xr:uid="{FB3C843C-5A24-4780-9D30-7C82A1A39753}"/>
-    <hyperlink ref="C103" r:id="rId164" xr:uid="{E44A3CF8-1F05-46D4-8CD7-A92A687BBF77}"/>
-    <hyperlink ref="C104" r:id="rId165" xr:uid="{223B89A1-80C1-4251-970C-44E2B0C7F14B}"/>
-    <hyperlink ref="C105" r:id="rId166" xr:uid="{B4A0E14F-C3DE-4C0B-8287-A0E582DC4F25}"/>
-    <hyperlink ref="C106" r:id="rId167" xr:uid="{EE22D1C0-63DF-46C3-86AC-751E81475D19}"/>
-    <hyperlink ref="C107" r:id="rId168" xr:uid="{2FDBD3DA-0EF2-4B5F-BD4C-EF13FF4DBF91}"/>
-    <hyperlink ref="C108" r:id="rId169" xr:uid="{0E517020-648A-4C9E-A77A-859F8A607E78}"/>
-    <hyperlink ref="C109" r:id="rId170" xr:uid="{761599F8-C197-45AD-9C3F-27A84DC67AD6}"/>
-    <hyperlink ref="D100" r:id="rId171" xr:uid="{B194EEB9-AA94-489E-94BB-6C1A93910809}"/>
-    <hyperlink ref="D101" r:id="rId172" xr:uid="{822C4C53-F51B-49EB-B230-96F47D78C461}"/>
-    <hyperlink ref="D102" r:id="rId173" xr:uid="{7F5AC8C2-8F1A-4DBB-91FB-D7B6A00EF6F2}"/>
-    <hyperlink ref="D103" r:id="rId174" xr:uid="{3A978BFB-912F-4A3D-8D60-8894C3D0D1F6}"/>
-    <hyperlink ref="D104" r:id="rId175" xr:uid="{5BC92E6F-1DA8-4233-BC33-C07C36EB4E0E}"/>
-    <hyperlink ref="D105" r:id="rId176" xr:uid="{02E570D1-4C31-4F42-AFAC-340357D471D9}"/>
-    <hyperlink ref="D106" r:id="rId177" xr:uid="{17876C26-1F23-4FC8-985B-5D2CE16C0085}"/>
-    <hyperlink ref="D107" r:id="rId178" xr:uid="{1AA80517-285D-4149-AECE-5661590F61BD}"/>
-    <hyperlink ref="D108" r:id="rId179" xr:uid="{179BA703-FE8E-45C8-B692-ED00E98197A5}"/>
-    <hyperlink ref="D109" r:id="rId180" xr:uid="{F3053A55-8791-43A2-9C6C-59043BA83EE1}"/>
+    <hyperlink ref="C83" r:id="rId126" xr:uid="{D2D9B609-86A8-4723-AFF9-868664D25BBD}"/>
+    <hyperlink ref="C84" r:id="rId127" xr:uid="{56C91A44-7C08-41CC-ABEE-B2BDCDC3AAAD}"/>
+    <hyperlink ref="C85" r:id="rId128" xr:uid="{35312ADC-74E9-43D2-A623-207FB8FFDD6D}"/>
+    <hyperlink ref="C82" r:id="rId129" xr:uid="{48F440BF-3F22-48B7-8FEA-DA7B93627114}"/>
+    <hyperlink ref="D76" r:id="rId130" xr:uid="{C9510286-7AF9-4449-AEE7-97708DE77F64}"/>
+    <hyperlink ref="D77" r:id="rId131" xr:uid="{B92C830E-FD73-4FC5-9F69-14CF90F76D88}"/>
+    <hyperlink ref="D78" r:id="rId132" xr:uid="{1C19C7BE-BD32-49F7-9143-108DAC82E154}"/>
+    <hyperlink ref="D79" r:id="rId133" xr:uid="{A29464AF-9F6B-447A-83EF-D553C424B4CD}"/>
+    <hyperlink ref="D80" r:id="rId134" xr:uid="{412AE17F-F492-4FF4-AD82-B9F2ACA46B0A}"/>
+    <hyperlink ref="D81" r:id="rId135" xr:uid="{88FF0994-DE9E-456C-9EA9-A6D2B2D97201}"/>
+    <hyperlink ref="D82" r:id="rId136" xr:uid="{670348EA-3BF7-42DF-9935-DC2EBCAFEAC6}"/>
+    <hyperlink ref="D83" r:id="rId137" xr:uid="{90F668A1-58AF-40B2-8D34-1C9288C65E61}"/>
+    <hyperlink ref="D84" r:id="rId138" xr:uid="{EA8D8529-EE87-4540-852E-ADD61D416989}"/>
+    <hyperlink ref="D85" r:id="rId139" xr:uid="{7138EC0C-CA80-44BF-8629-B083C79167EA}"/>
+    <hyperlink ref="C88" r:id="rId140" xr:uid="{86DB8BA3-1DC3-4DF1-A56D-F42C8F022A18}"/>
+    <hyperlink ref="C89" r:id="rId141" xr:uid="{3816143D-7AB4-46CE-A31F-4D37CCC74861}"/>
+    <hyperlink ref="C90" r:id="rId142" xr:uid="{3F01CD94-4268-4946-81A0-37601FA25BDE}"/>
+    <hyperlink ref="C91" r:id="rId143" xr:uid="{01E551E9-786F-4377-B449-6E88085154BF}"/>
+    <hyperlink ref="C92" r:id="rId144" xr:uid="{FB13788E-76D3-494B-BFE3-0A4B84EED34A}"/>
+    <hyperlink ref="C93" r:id="rId145" xr:uid="{C1FFC63D-BC74-45F5-8403-9F13D0AA3D36}"/>
+    <hyperlink ref="C94" r:id="rId146" xr:uid="{D08ABC1A-A3F4-4FE9-9293-AAA712CE27FE}"/>
+    <hyperlink ref="C95" r:id="rId147" xr:uid="{8A01D498-7AB0-4672-A66C-0870AA25FF5B}"/>
+    <hyperlink ref="C96" r:id="rId148" xr:uid="{60FB32F2-82E6-48D7-844B-E9C118DCFF26}"/>
+    <hyperlink ref="C97" r:id="rId149" xr:uid="{A8BC003D-3020-4BE8-A85B-7BEA49AE2249}"/>
+    <hyperlink ref="D88" r:id="rId150" xr:uid="{20C68334-38CA-4525-9552-3E04D338E194}"/>
+    <hyperlink ref="D89" r:id="rId151" xr:uid="{D88397FB-D16E-4422-83D8-C645BF49D43F}"/>
+    <hyperlink ref="D90" r:id="rId152" xr:uid="{2AC518D7-E671-4D21-A02D-100FD2965C71}"/>
+    <hyperlink ref="D91" r:id="rId153" xr:uid="{71BDFA72-5B30-44FB-853B-FCA51C184701}"/>
+    <hyperlink ref="D92" r:id="rId154" xr:uid="{F083BA8D-0511-4E41-B2E8-9489FBD37459}"/>
+    <hyperlink ref="D93" r:id="rId155" xr:uid="{ABD05250-F031-42D5-98AE-CB47918ABB09}"/>
+    <hyperlink ref="D94" r:id="rId156" xr:uid="{64C97C23-D510-437F-9D27-B73A61548C2E}"/>
+    <hyperlink ref="D95" r:id="rId157" xr:uid="{2CF2DC7D-3A5D-4A1F-916E-BE96944AFE91}"/>
+    <hyperlink ref="D96" r:id="rId158" xr:uid="{C1C0F965-C88E-46E9-9E46-354F356CA1D9}"/>
+    <hyperlink ref="D97" r:id="rId159" xr:uid="{63F5AFCA-7D0C-4683-A182-D714A1F5E57F}"/>
+    <hyperlink ref="C100" r:id="rId160" xr:uid="{AAD0F5EC-52E2-4818-B82E-10ACA6009DAC}"/>
+    <hyperlink ref="C101" r:id="rId161" xr:uid="{A4BF43C5-F9A2-4410-8C08-B912025D9C17}"/>
+    <hyperlink ref="C102" r:id="rId162" xr:uid="{FB3C843C-5A24-4780-9D30-7C82A1A39753}"/>
+    <hyperlink ref="C103" r:id="rId163" xr:uid="{E44A3CF8-1F05-46D4-8CD7-A92A687BBF77}"/>
+    <hyperlink ref="C104" r:id="rId164" xr:uid="{223B89A1-80C1-4251-970C-44E2B0C7F14B}"/>
+    <hyperlink ref="C105" r:id="rId165" xr:uid="{B4A0E14F-C3DE-4C0B-8287-A0E582DC4F25}"/>
+    <hyperlink ref="C106" r:id="rId166" xr:uid="{EE22D1C0-63DF-46C3-86AC-751E81475D19}"/>
+    <hyperlink ref="C107" r:id="rId167" xr:uid="{2FDBD3DA-0EF2-4B5F-BD4C-EF13FF4DBF91}"/>
+    <hyperlink ref="C108" r:id="rId168" xr:uid="{0E517020-648A-4C9E-A77A-859F8A607E78}"/>
+    <hyperlink ref="C109" r:id="rId169" xr:uid="{761599F8-C197-45AD-9C3F-27A84DC67AD6}"/>
+    <hyperlink ref="D100" r:id="rId170" xr:uid="{B194EEB9-AA94-489E-94BB-6C1A93910809}"/>
+    <hyperlink ref="D101" r:id="rId171" xr:uid="{822C4C53-F51B-49EB-B230-96F47D78C461}"/>
+    <hyperlink ref="D102" r:id="rId172" xr:uid="{7F5AC8C2-8F1A-4DBB-91FB-D7B6A00EF6F2}"/>
+    <hyperlink ref="D103" r:id="rId173" xr:uid="{3A978BFB-912F-4A3D-8D60-8894C3D0D1F6}"/>
+    <hyperlink ref="D104" r:id="rId174" xr:uid="{5BC92E6F-1DA8-4233-BC33-C07C36EB4E0E}"/>
+    <hyperlink ref="D105" r:id="rId175" xr:uid="{02E570D1-4C31-4F42-AFAC-340357D471D9}"/>
+    <hyperlink ref="D106" r:id="rId176" xr:uid="{17876C26-1F23-4FC8-985B-5D2CE16C0085}"/>
+    <hyperlink ref="D107" r:id="rId177" xr:uid="{1AA80517-285D-4149-AECE-5661590F61BD}"/>
+    <hyperlink ref="D108" r:id="rId178" xr:uid="{179BA703-FE8E-45C8-B692-ED00E98197A5}"/>
+    <hyperlink ref="D109" r:id="rId179" xr:uid="{F3053A55-8791-43A2-9C6C-59043BA83EE1}"/>
+    <hyperlink ref="C80" r:id="rId180" display="https://www.nytimes.com/video" xr:uid="{C2A0B831-9F0F-43CA-8A99-D4CC5D82FE5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId181"/>
